--- a/public/data/excel/全球专家分布.xlsx
+++ b/public/data/excel/全球专家分布.xlsx
@@ -1,5 +1,279 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickylau/develop/kefa/sstir-ai-vis/public/data/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1FD086-09F0-DA48-BC5D-6A4861F3773A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20320" windowHeight="8560" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="全球" sheetId="2" r:id="rId1"/>
+    <sheet name="自然语言处理" sheetId="1" r:id="rId2"/>
+    <sheet name="数据挖掘" sheetId="3" r:id="rId3"/>
+    <sheet name="机器学习" sheetId="4" r:id="rId4"/>
+    <sheet name="芯片技术" sheetId="5" r:id="rId5"/>
+    <sheet name="人机交互" sheetId="6" r:id="rId6"/>
+    <sheet name="知识工程" sheetId="7" r:id="rId7"/>
+    <sheet name="语音识别" sheetId="8" r:id="rId8"/>
+    <sheet name="计算机视觉" sheetId="9" r:id="rId9"/>
+    <sheet name="信息检索与推荐" sheetId="10" r:id="rId10"/>
+    <sheet name="机器人" sheetId="11" r:id="rId11"/>
+    <sheet name="数据库" sheetId="12" r:id="rId12"/>
+    <sheet name="可视化" sheetId="13" r:id="rId13"/>
+    <sheet name="安全与隐私" sheetId="14" r:id="rId14"/>
+    <sheet name="计算机图形" sheetId="15" r:id="rId15"/>
+    <sheet name="计算机网络" sheetId="16" r:id="rId16"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="56">
+  <si>
+    <t>领域</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>专家数</t>
+  </si>
+  <si>
+    <t>自然语言处理</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>芯片技术</t>
+  </si>
+  <si>
+    <t>人机交互</t>
+  </si>
+  <si>
+    <t>知识工程</t>
+  </si>
+  <si>
+    <t>语音识别</t>
+  </si>
+  <si>
+    <t>计算机视觉</t>
+  </si>
+  <si>
+    <t>信息检索与推荐</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>可视化</t>
+  </si>
+  <si>
+    <t>安全与隐私</t>
+  </si>
+  <si>
+    <t>计算机图形</t>
+  </si>
+  <si>
+    <t>计算机网络</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -251,9 +525,3451 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>